--- a/Testing/Round 1/Graphs for Report.xlsx
+++ b/Testing/Round 1/Graphs for Report.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/rch16_ic_ac_uk/Documents/University/EE4 (19-20)/Final Year Project/App/Testing/Round 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beccahallam/Documents/GitHub/FYP/Testing/Round 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{8DD7C6E0-082B-9D40-AC1E-D74FB1778D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{09448778-5595-214F-B1FC-9B9DF4682478}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FA43C4-62E9-0147-A604-F170C42BA8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{87D8AC8E-957B-954E-B0AC-12AA7ABF4CF8}"/>
+    <workbookView xWindow="4820" yWindow="2480" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{87D8AC8E-957B-954E-B0AC-12AA7ABF4CF8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="1" r:id="rId1"/>
+    <sheet name="Statistical significance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Participant</t>
   </si>
@@ -70,12 +71,78 @@
   <si>
     <t>satisfaction</t>
   </si>
+  <si>
+    <t>Reycilng Knowledge</t>
+  </si>
+  <si>
+    <t>Likeliness to Recycle</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>dof</t>
+  </si>
+  <si>
+    <t>p value</t>
+  </si>
+  <si>
+    <t>two tail</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Null Hypothesis</t>
+  </si>
+  <si>
+    <t>Alternative Hypothesis</t>
+  </si>
+  <si>
+    <t>Participants with greater percieved recycling knowledge are more likely to recycle</t>
+  </si>
+  <si>
+    <t>Participants with greater percieved recycling knowledge are not more likely to recycle</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>Participants with lower percieved recycling knowledge are not more likely to find the app useful</t>
+  </si>
+  <si>
+    <t>Participants with lower percieved recycling knowledge are more likely to find the app useful</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,16 +158,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -108,11 +188,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -120,6 +237,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -190,7 +326,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$14:$A$20</c:f>
+              <c:f>Graphs!$A$14:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -220,7 +356,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$B$20</c:f>
+              <c:f>Graphs!$B$14:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -301,7 +437,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$14:$A$20</c:f>
+              <c:f>Graphs!$A$14:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -331,7 +467,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$20</c:f>
+              <c:f>Graphs!$C$14:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -746,7 +882,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$33:$A$39</c:f>
+              <c:f>Graphs!$A$33:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -776,7 +912,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$33:$B$39</c:f>
+              <c:f>Graphs!$B$33:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -857,7 +993,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$33:$A$39</c:f>
+              <c:f>Graphs!$A$33:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -887,7 +1023,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$33:$C$39</c:f>
+              <c:f>Graphs!$C$33:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1302,7 +1438,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:f>Graphs!$A$52:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1332,7 +1468,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$52:$B$58</c:f>
+              <c:f>Graphs!$B$52:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1413,7 +1549,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$58</c:f>
+              <c:f>Graphs!$A$52:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1443,7 +1579,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$52:$C$58</c:f>
+              <c:f>Graphs!$C$52:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3881,8 +4017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C717EF32-ADAC-DF49-BC08-20073413C19F}">
   <dimension ref="A2:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4390,4 +4526,580 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89EC059-D3F5-D547-8FF3-87EC54286121}">
+  <dimension ref="A2:K34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <f>SQRT(((G9*G9)/COUNT(E6:E8))+((G15*G15)/COUNT(E11:E14)))</f>
+        <v>0.67486281184757457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>SUM(C6-$C$9)</f>
+        <v>-1.1666666666666665</v>
+      </c>
+      <c r="E6">
+        <f>SUM(D6*D6)</f>
+        <v>1.3611111111111107</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <f>SUM((C15-C9)/J5)</f>
+        <v>0.74089132075769304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D8" si="0">SUM(C7-$C$9)</f>
+        <v>0.83333333333333348</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E8" si="1">SUM(D7*D7)</f>
+        <v>0.69444444444444464</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <f>SUM(COUNT(C6:C8,C11:C14)-2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.11111111111111122</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8">
+        <f>SUM(COUNT(C11:C14)/COUNT(C6:C8))</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7">
+        <f>AVERAGE(B6:B8)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="C9" s="8">
+        <f>AVERAGE(C6:C8)</f>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="D9" s="13">
+        <f>AVERAGE(D6:D8)</f>
+        <v>1.4802973661668753E-16</v>
+      </c>
+      <c r="E9" s="2">
+        <f>SUM(E6:E8)</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="F9" s="2">
+        <f>SUM(E9/(COUNT(E6:E8)-1))</f>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="G9" s="2">
+        <f>SQRT(F9)</f>
+        <v>1.0408329997330663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="E10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="C11" s="11">
+        <v>4.25</v>
+      </c>
+      <c r="D11">
+        <f>SUM(C11-$C$15)</f>
+        <v>0.58333333333333348</v>
+      </c>
+      <c r="E11">
+        <f>SUM(D11*D11)</f>
+        <v>0.34027777777777796</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11">
+        <v>0.25</v>
+      </c>
+      <c r="K11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D14" si="2">SUM(C12-$C$15)</f>
+        <v>-0.66666666666666652</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E14" si="3">SUM(D12*D12)</f>
+        <v>0.44444444444444425</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <f>SUM(J11/2)</f>
+        <v>0.125</v>
+      </c>
+      <c r="K12">
+        <f>SUM(K11/2)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4.25</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333348</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0.34027777777777796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>3.75</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333481E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>6.9444444444444692E-3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7">
+        <f>AVERAGE(B12:B14)</f>
+        <v>4</v>
+      </c>
+      <c r="C15" s="8">
+        <f>AVERAGE(C12:C14)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="D15" s="13">
+        <f>AVERAGE(D11:D14)</f>
+        <v>0.14583333333333348</v>
+      </c>
+      <c r="E15" s="2">
+        <f>SUM(E11:E14)</f>
+        <v>1.1319444444444446</v>
+      </c>
+      <c r="F15" s="2">
+        <f>SUM(E15/(COUNT(E11:E14)-1))</f>
+        <v>0.37731481481481488</v>
+      </c>
+      <c r="G15" s="2">
+        <f>SQRT(F15)</f>
+        <v>0.61425956631933287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <f>SQRT(((G28*G28)/COUNT(E25:E27))+((G34*G34)/COUNT(E30:E33)))</f>
+        <v>1.163808502925409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <f>SUM(C25-$C$9)</f>
+        <v>1.8333333333333335</v>
+      </c>
+      <c r="E25">
+        <f>SUM(D25*D25)</f>
+        <v>3.3611111111111116</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <f>SUM((C28-C34)/J24)</f>
+        <v>0.15036838067440794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>4.5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D27" si="4">SUM(C26-$C$9)</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:E27" si="5">SUM(D26*D26)</f>
+        <v>1.7777777777777781</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26">
+        <f>SUM(COUNT(C25:C27,C30:C33)-2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="4">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>4.5</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>1.7777777777777781</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27">
+        <f>SUM(COUNT(C30:C33)/COUNT(C25:C27))</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7">
+        <f>AVERAGE(B25:B27)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="C28" s="8">
+        <f>AVERAGE(C25:C27)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="D28" s="13">
+        <f>AVERAGE(D25:D27)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="2">
+        <f>SUM(E25:E27)</f>
+        <v>6.9166666666666679</v>
+      </c>
+      <c r="F28" s="2">
+        <f>SUM(E28/(COUNT(E25:E27)-1))</f>
+        <v>3.4583333333333339</v>
+      </c>
+      <c r="G28" s="2">
+        <f>SQRT(F28)</f>
+        <v>1.8596594670351165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="E29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="C30" s="11">
+        <v>4.25</v>
+      </c>
+      <c r="D30">
+        <f>SUM(C30-$C$15)</f>
+        <v>0.58333333333333348</v>
+      </c>
+      <c r="E30">
+        <f>SUM(D30*D30)</f>
+        <v>0.34027777777777796</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="4">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>4.625</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D33" si="6">SUM(C31-$C$15)</f>
+        <v>0.95833333333333348</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E33" si="7">SUM(D31*D31)</f>
+        <v>0.91840277777777801</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <f>SUM(J30/2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K31">
+        <f>SUM(K30/2)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>4.5</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="6"/>
+        <v>0.83333333333333348</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="7"/>
+        <v>0.69444444444444464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="4">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="6"/>
+        <v>0.68333333333333313</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="7"/>
+        <v>0.46694444444444416</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7">
+        <f>AVERAGE(B31:B33)</f>
+        <v>4</v>
+      </c>
+      <c r="C34" s="8">
+        <f>AVERAGE(C31:C33)</f>
+        <v>4.4916666666666663</v>
+      </c>
+      <c r="D34" s="13">
+        <f>AVERAGE(D30:D33)</f>
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="E34" s="2">
+        <f>SUM(E30:E33)</f>
+        <v>2.4200694444444446</v>
+      </c>
+      <c r="F34" s="2">
+        <f>SUM(E34/(COUNT(E30:E33)-1))</f>
+        <v>0.80668981481481483</v>
+      </c>
+      <c r="G34" s="2">
+        <f>SQRT(F34)</f>
+        <v>0.89815912555338151</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:C14">
+    <sortCondition ref="B6:B14"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A30:A34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testing/Round 1/Graphs for Report.xlsx
+++ b/Testing/Round 1/Graphs for Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beccahallam/Documents/GitHub/FYP/Testing/Round 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FA43C4-62E9-0147-A604-F170C42BA8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A274DB2A-0305-9A4B-BE40-4262254FF9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="2480" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{87D8AC8E-957B-954E-B0AC-12AA7ABF4CF8}"/>
+    <workbookView xWindow="19320" yWindow="0" windowWidth="19080" windowHeight="21600" activeTab="1" xr2:uid="{87D8AC8E-957B-954E-B0AC-12AA7ABF4CF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Participant</t>
   </si>
@@ -72,77 +72,86 @@
     <t>satisfaction</t>
   </si>
   <si>
-    <t>Reycilng Knowledge</t>
-  </si>
-  <si>
     <t>Likeliness to Recycle</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>High</t>
   </si>
   <si>
     <t>Standard Deviation</t>
   </si>
   <si>
-    <t>Square</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
-    <t>dof</t>
+    <t>x</t>
   </si>
   <si>
-    <t>p value</t>
+    <t>N</t>
   </si>
   <si>
-    <t>two tail</t>
+    <t>y</t>
   </si>
   <si>
-    <t>max</t>
+    <t>r</t>
   </si>
   <si>
-    <t>min</t>
+    <t>Moderate Positive Correlation</t>
   </si>
   <si>
-    <t>Null Hypothesis</t>
+    <t>sigma x</t>
   </si>
   <si>
-    <t>Alternative Hypothesis</t>
+    <t>sigma y</t>
   </si>
   <si>
-    <t>Participants with greater percieved recycling knowledge are more likely to recycle</t>
+    <t>Sum</t>
   </si>
   <si>
-    <t>Participants with greater percieved recycling knowledge are not more likely to recycle</t>
+    <t>p</t>
   </si>
   <si>
-    <t>ratio</t>
+    <t>Product</t>
   </si>
   <si>
-    <t>Participants with lower percieved recycling knowledge are not more likely to find the app useful</t>
+    <t>Product of the Square Roots</t>
   </si>
   <si>
-    <t>Participants with lower percieved recycling knowledge are more likely to find the app useful</t>
+    <t>The result is significant at alpha &lt; 0.05</t>
+  </si>
+  <si>
+    <t>Standard Deviation ^ 2</t>
+  </si>
+  <si>
+    <t>sigma x ^ 2</t>
+  </si>
+  <si>
+    <t>sigma y ^2</t>
+  </si>
+  <si>
+    <t>N - 2 = 5</t>
+  </si>
+  <si>
+    <t>The result is not significant at alpha &lt; 0.05</t>
+  </si>
+  <si>
+    <t>User Satisfaction Score</t>
+  </si>
+  <si>
+    <t>Strong Negative Correlation</t>
+  </si>
+  <si>
+    <t>0.1 &gt; p &gt; 0.05</t>
+  </si>
+  <si>
+    <t>0.025 &gt; p &gt; 0.01</t>
+  </si>
+  <si>
+    <t>Pearson Correlation Coefficient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,40 +169,46 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -212,24 +227,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -238,25 +240,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3718,6 +3733,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B787D436-A913-184F-8A4E-EE61455FB8F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12928600" y="355600"/>
+          <a:ext cx="3924300" cy="3924300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4018,7 +4082,7 @@
   <dimension ref="A2:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4530,576 +4594,886 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89EC059-D3F5-D547-8FF3-87EC54286121}">
-  <dimension ref="A2:K34"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="9" width="7.83203125" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3.5</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <f>AVERAGE(C3:I3)</f>
+        <v>3.3571428571428572</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="5">
+        <f>COUNT(C3:I3)</f>
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4.25</v>
+      </c>
+      <c r="G4">
+        <v>3.5</v>
+      </c>
+      <c r="H4">
+        <v>4.25</v>
+      </c>
+      <c r="I4">
+        <v>3.75</v>
+      </c>
+      <c r="J4" s="2">
+        <f>AVERAGE(C4:I4)</f>
+        <v>3.5357142857142856</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="5">
+        <f>SUM(J7/K8)</f>
+        <v>0.62938980611892781</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <f>SUM(C3-$J3)</f>
+        <v>-1.3571428571428572</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D3-$J3)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="E5">
+        <f>SUM(E3-$J3)</f>
+        <v>-0.35714285714285721</v>
+      </c>
+      <c r="F5">
+        <f>SUM(F3-$J3)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="G5">
+        <f>SUM(G3-$J3)</f>
+        <v>-0.35714285714285721</v>
+      </c>
+      <c r="H5">
+        <f>SUM(H3-$J3)</f>
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="I5">
+        <f>SUM(I3-$J3)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="L5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="5">
+        <f>SUM((M4*SQRT(M3-2))/(SQRT(1-(M4*M4))))</f>
+        <v>1.8110628787540115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C4-$J4)</f>
+        <v>-1.5357142857142856</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D4-$J4)</f>
+        <v>-0.53571428571428559</v>
+      </c>
+      <c r="E6">
+        <f>SUM(E4-$J4)</f>
+        <v>0.46428571428571441</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F4-$J4)</f>
+        <v>0.71428571428571441</v>
+      </c>
+      <c r="G6">
+        <f>SUM(G4-$J4)</f>
+        <v>-3.5714285714285587E-2</v>
+      </c>
+      <c r="H6">
+        <f>SUM(H4-$J4)</f>
+        <v>0.71428571428571441</v>
+      </c>
+      <c r="I6">
+        <f>SUM(I4-$J4)</f>
+        <v>0.21428571428571441</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7">
+        <f>SUM(C5*C6)</f>
+        <v>2.0841836734693877</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:I7" si="0">SUM(D5*D6)</f>
+        <v>-0.34438775510204073</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-0.16581632653061232</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.45918367346938777</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.2755102040816283E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.10204081632653059</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.1377551020408164</v>
+      </c>
+      <c r="J7">
+        <f>SUM(C7:I7)</f>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <f>SQRT(((G9*G9)/COUNT(E6:E8))+((G15*G15)/COUNT(E11:E14)))</f>
-        <v>0.67486281184757457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <f>SUM(C6-$C$9)</f>
-        <v>-1.1666666666666665</v>
-      </c>
-      <c r="E6">
-        <f>SUM(D6*D6)</f>
-        <v>1.3611111111111107</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6">
-        <f>SUM((C15-C9)/J5)</f>
-        <v>0.74089132075769304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:D8" si="0">SUM(C7-$C$9)</f>
-        <v>0.83333333333333348</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E8" si="1">SUM(D7*D7)</f>
-        <v>0.69444444444444464</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7">
-        <f>SUM(COUNT(C6:C8,C11:C14)-2)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
       <c r="C8">
-        <v>3.5</v>
+        <f>SUM(C5*C5)</f>
+        <v>1.8418367346938778</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333348</v>
+        <f t="shared" ref="D8:I9" si="1">SUM(D5*D5)</f>
+        <v>0.41326530612244888</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0.11111111111111122</v>
-      </c>
-      <c r="G8" t="s">
+        <v>0.12755102040816332</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.41326530612244888</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.12755102040816332</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2.0408163265306103E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.41326530612244888</v>
+      </c>
+      <c r="J8">
+        <f>SUM(C8:I8)</f>
+        <v>3.3571428571428563</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUM(SQRT(J8)*SQRT(J9))</f>
+        <v>3.6316353768246179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C6*C6)</f>
+        <v>2.3584183673469385</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.28698979591836721</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.21556122448979603</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.51020408163265329</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1.2755102040816237E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.51020408163265329</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>4.5918367346938826E-2</v>
+      </c>
+      <c r="J9">
+        <f>SUM(C9:I9)</f>
+        <v>3.9285714285714297</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3.5</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2">
+        <f>AVERAGE(C12:I12)</f>
+        <v>3.3571428571428572</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="5">
+        <f>COUNT(C12:I12)</f>
+        <v>7</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3.625</v>
+      </c>
+      <c r="E13" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="G13" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="I13" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="J13" s="2">
+        <f>AVERAGE(C13:I13)</f>
+        <v>4.375</v>
+      </c>
+      <c r="L13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8">
-        <f>SUM(COUNT(C11:C14)/COUNT(C6:C8))</f>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7">
-        <f>AVERAGE(B6:B8)</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="C9" s="8">
-        <f>AVERAGE(C6:C8)</f>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="D9" s="13">
-        <f>AVERAGE(D6:D8)</f>
-        <v>1.4802973661668753E-16</v>
-      </c>
-      <c r="E9" s="2">
-        <f>SUM(E6:E8)</f>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="F9" s="2">
-        <f>SUM(E9/(COUNT(E6:E8)-1))</f>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="G9" s="2">
-        <f>SQRT(F9)</f>
-        <v>1.0408329997330663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="E10" s="2"/>
-      <c r="J10" s="2" t="s">
+      <c r="M13" s="5">
+        <f>SUM(J16/K17)</f>
+        <v>-0.77257555305022274</v>
+      </c>
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C12-$J12)</f>
+        <v>-1.3571428571428572</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D12-$J12)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E12-$J12)</f>
+        <v>-0.35714285714285721</v>
+      </c>
+      <c r="F14">
+        <f>SUM(F12-$J12)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="G14">
+        <f>SUM(G12-$J12)</f>
+        <v>-0.35714285714285721</v>
+      </c>
+      <c r="H14">
+        <f>SUM(H12-$J12)</f>
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="I14">
+        <f>SUM(I12-$J12)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="L14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="5">
+        <f>SUM((M13*SQRT(M12-2))/(SQRT(1-(M13*M13))))</f>
+        <v>-2.7208525841151716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C13-$J13)</f>
+        <v>0.625</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D13-$J13)</f>
+        <v>-0.75</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E13-$J13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="F15">
+        <f>SUM(F13-$J13)</f>
+        <v>-0.125</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G13-$J13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="H15">
+        <f>SUM(H13-$J13)</f>
+        <v>-0.125</v>
+      </c>
+      <c r="I15">
+        <f>SUM(I13-$J13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16">
+        <f>SUM(C14*C15)</f>
+        <v>-0.84821428571428581</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16" si="2">SUM(D14*D15)</f>
+        <v>-0.4821428571428571</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16" si="3">SUM(E14*E15)</f>
+        <v>-4.4642857142857151E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16" si="4">SUM(F14*F15)</f>
+        <v>-8.0357142857142849E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16" si="5">SUM(G14*G15)</f>
+        <v>-4.4642857142857151E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16" si="6">SUM(H14*H15)</f>
+        <v>-1.7857142857142849E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16" si="7">SUM(I14*I15)</f>
+        <v>8.0357142857142849E-2</v>
+      </c>
+      <c r="J16">
+        <f>SUM(C16:I16)</f>
+        <v>-1.4375</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="C11" s="11">
-        <v>4.25</v>
-      </c>
-      <c r="D11">
-        <f>SUM(C11-$C$15)</f>
-        <v>0.58333333333333348</v>
-      </c>
-      <c r="E11">
-        <f>SUM(D11*D11)</f>
-        <v>0.34027777777777796</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11">
-        <v>0.25</v>
-      </c>
-      <c r="K11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D14" si="2">SUM(C12-$C$15)</f>
-        <v>-0.66666666666666652</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12:E14" si="3">SUM(D12*D12)</f>
-        <v>0.44444444444444425</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12">
-        <f>SUM(J11/2)</f>
-        <v>0.125</v>
-      </c>
-      <c r="K12">
-        <f>SUM(K11/2)</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>4.25</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>0.58333333333333348</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>0.34027777777777796</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>3.75</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333481E-2</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
-        <v>6.9444444444444692E-3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7">
-        <f>AVERAGE(B12:B14)</f>
-        <v>4</v>
-      </c>
-      <c r="C15" s="8">
-        <f>AVERAGE(C12:C14)</f>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="D15" s="13">
-        <f>AVERAGE(D11:D14)</f>
-        <v>0.14583333333333348</v>
-      </c>
-      <c r="E15" s="2">
-        <f>SUM(E11:E14)</f>
-        <v>1.1319444444444446</v>
-      </c>
-      <c r="F15" s="2">
-        <f>SUM(E15/(COUNT(E11:E14)-1))</f>
-        <v>0.37731481481481488</v>
-      </c>
-      <c r="G15" s="2">
-        <f>SQRT(F15)</f>
-        <v>0.61425956631933287</v>
-      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C14*C14)</f>
+        <v>1.8418367346938778</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:I17" si="8">SUM(D14*D14)</f>
+        <v>0.41326530612244888</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="8"/>
+        <v>0.12755102040816332</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="8"/>
+        <v>0.41326530612244888</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="8"/>
+        <v>0.12755102040816332</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="8"/>
+        <v>2.0408163265306103E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>0.41326530612244888</v>
+      </c>
+      <c r="J17">
+        <f>SUM(C17:I17)</f>
+        <v>3.3571428571428563</v>
+      </c>
+      <c r="K17" s="4">
+        <f>SUM(SQRT(J17)*SQRT(J18))</f>
+        <v>1.8606594453119494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C15*C15)</f>
+        <v>0.390625</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:I18" si="9">SUM(D15*D15)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="9"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="9"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="9"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="9"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="9"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="J18">
+        <f>SUM(C18:I18)</f>
+        <v>1.03125</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24">
-        <f>SQRT(((G28*G28)/COUNT(E25:E27))+((G34*G34)/COUNT(E30:E33)))</f>
-        <v>1.163808502925409</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="4">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <f>SUM(C25-$C$9)</f>
-        <v>1.8333333333333335</v>
-      </c>
-      <c r="E25">
-        <f>SUM(D25*D25)</f>
-        <v>3.3611111111111116</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25">
-        <f>SUM((C28-C34)/J24)</f>
-        <v>0.15036838067440794</v>
-      </c>
+      <c r="A25" s="10"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>4.5</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ref="D26:D27" si="4">SUM(C26-$C$9)</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ref="E26:E27" si="5">SUM(D26*D26)</f>
-        <v>1.7777777777777781</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26">
-        <f>SUM(COUNT(C25:C27,C30:C33)-2)</f>
-        <v>5</v>
-      </c>
+      <c r="A26" s="10"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="4">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>4.5</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="4"/>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="5"/>
-        <v>1.7777777777777781</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27">
-        <f>SUM(COUNT(C30:C33)/COUNT(C25:C27))</f>
-        <v>1.3333333333333333</v>
-      </c>
+      <c r="A27" s="10"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7">
-        <f>AVERAGE(B25:B27)</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="C28" s="8">
-        <f>AVERAGE(C25:C27)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="D28" s="13">
-        <f>AVERAGE(D25:D27)</f>
-        <v>1.5</v>
-      </c>
-      <c r="E28" s="2">
-        <f>SUM(E25:E27)</f>
-        <v>6.9166666666666679</v>
-      </c>
-      <c r="F28" s="2">
-        <f>SUM(E28/(COUNT(E25:E27)-1))</f>
-        <v>3.4583333333333339</v>
-      </c>
-      <c r="G28" s="2">
-        <f>SQRT(F28)</f>
-        <v>1.8596594670351165</v>
-      </c>
+      <c r="A28" s="10"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="E29" s="2"/>
-      <c r="J29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A29" s="11"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="C30" s="11">
-        <v>4.25</v>
-      </c>
-      <c r="D30">
-        <f>SUM(C30-$C$15)</f>
-        <v>0.58333333333333348</v>
-      </c>
-      <c r="E30">
-        <f>SUM(D30*D30)</f>
-        <v>0.34027777777777796</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0.25</v>
-      </c>
+      <c r="A30" s="10"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="4">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>4.625</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ref="D31:D33" si="6">SUM(C31-$C$15)</f>
-        <v>0.95833333333333348</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ref="E31:E33" si="7">SUM(D31*D31)</f>
-        <v>0.91840277777777801</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31">
-        <f>SUM(J30/2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K31">
-        <f>SUM(K30/2)</f>
-        <v>0.125</v>
-      </c>
+      <c r="A31" s="10"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>4.5</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="6"/>
-        <v>0.83333333333333348</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="7"/>
-        <v>0.69444444444444464</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="4">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="6"/>
-        <v>0.68333333333333313</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="7"/>
-        <v>0.46694444444444416</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7">
-        <f>AVERAGE(B31:B33)</f>
-        <v>4</v>
-      </c>
-      <c r="C34" s="8">
-        <f>AVERAGE(C31:C33)</f>
-        <v>4.4916666666666663</v>
-      </c>
-      <c r="D34" s="13">
-        <f>AVERAGE(D30:D33)</f>
-        <v>0.76458333333333339</v>
-      </c>
-      <c r="E34" s="2">
-        <f>SUM(E30:E33)</f>
-        <v>2.4200694444444446</v>
-      </c>
-      <c r="F34" s="2">
-        <f>SUM(E34/(COUNT(E30:E33)-1))</f>
-        <v>0.80668981481481483</v>
-      </c>
-      <c r="G34" s="2">
-        <f>SQRT(F34)</f>
-        <v>0.89815912555338151</v>
-      </c>
+      <c r="A32" s="10"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:C14">
     <sortCondition ref="B6:B14"/>
   </sortState>
-  <mergeCells count="4">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A11:A15"/>
+  <mergeCells count="6">
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>